--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Aortic dissection_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Aortic dissection_gen_overall.xlsx
@@ -467,105 +467,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a classic presentation of aortic dissection, often described as a tearing or ripping sensation.</t>
+          <t>Aortic dissection often presents with a sudden, severe chest pain that is described as tearing or ripping.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gradual onset of symptoms</t>
+          <t>Gradual onset of chest pain</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Aortic dissection typically presents acutely; a gradual onset is more indicative of other conditions.</t>
+          <t>Aortic dissection typically presents with sudden onset pain, so gradual onset is less likely to be associated with it.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Pain that radiates to the back</t>
+          <t>Pain radiating to the back</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Radiation of pain to the back is commonly associated with aortic dissection due to the nature of the pain and the anatomical location of the aorta.</t>
+          <t>Pain that radiates to the back is characteristic of aortic dissection due to the involvement of the aorta.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Mild or no chest pain</t>
+          <t>Pain relieved by rest</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Patients with aortic dissection usually experience severe pain; mild pain suggests a lower likelihood of dissection.</t>
+          <t>Pain from aortic dissection is usually persistent and not relieved by rest, unlike other conditions such as angina.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Presence of hypertension</t>
+          <t>History of hypertension</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hypertension is a significant risk factor for aortic dissection and is frequently observed in affected patients.</t>
+          <t>Hypertension is a major risk factor for aortic dissection, increasing the likelihood of this diagnosis.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absence of risk factors such as smoking or hypertension</t>
+          <t>No history of hypertension</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Without these risk factors, the likelihood of aortic dissection is significantly reduced.</t>
+          <t>Absence of hypertension reduces the likelihood of aortic dissection, as it is a common risk factor.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Altered mental status or syncope</t>
+          <t>Neurological symptoms such as syncope</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>These symptoms can occur due to compromised blood flow or neurological involvement in aortic dissection.</t>
+          <t>Syncope or other neurological symptoms can occur due to compromised blood flow, supporting aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stable vital signs</t>
+          <t>Pain localized to a small area</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stable blood pressure and heart rate are less consistent with aortic dissection, which often leads to hemodynamic instability.</t>
+          <t>Aortic dissection pain is typically more diffuse and severe, not localized to a small area.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of connective tissue disorders</t>
+          <t>Pain described as tearing or ripping</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conditions such as Marfan syndrome or Ehlers-Danlos syndrome increase the risk of aortic dissection.</t>
+          <t>The specific description of pain as tearing or ripping is highly suggestive of aortic dissection.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No neurological deficits</t>
+          <t>Pain associated with exertion</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Neurological deficits can indicate complications of aortic dissection; their absence suggests a lower likelihood of the condition.</t>
+          <t>Pain from aortic dissection is not typically associated with exertion, unlike angina or myocardial infarction.</t>
         </is>
       </c>
     </row>
@@ -618,7 +618,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hypertension is a significant risk factor for aortic dissection, as it contributes to the degeneration of the aortic wall.</t>
+          <t>Hypertension is a major risk factor for aortic dissection due to increased stress on the aortic wall.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -628,95 +628,95 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>The absence of hypertension significantly reduces the risk of aortic dissection, as it is a major contributing factor.</t>
+          <t>Absence of hypertension reduces the likelihood of aortic dissection as it is a major risk factor.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous cardiovascular surgeries</t>
+          <t>Connective tissue disorder</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Patients with a history of cardiovascular surgeries may have structural changes in the aorta, increasing the risk of dissection.</t>
+          <t>Conditions like Marfan syndrome or Ehlers-Danlos syndrome increase the risk of aortic dissection due to weakened connective tissue.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous cardiovascular conditions</t>
+          <t>No connective tissue disorder</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A lack of prior cardiovascular issues suggests a lower risk for structural abnormalities in the aorta.</t>
+          <t>Without connective tissue disorders, the structural integrity of the aorta is less likely to be compromised.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Connective tissue disorders (e.g., Marfan syndrome)</t>
+          <t>Previous aortic aneurysm</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conditions like Marfan syndrome are associated with a higher incidence of aortic dissection due to weakened connective tissue.</t>
+          <t>A history of aortic aneurysm can predispose to dissection due to structural weakness in the aorta.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No connective tissue disorders</t>
+          <t>No previous aortic aneurysm</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Without connective tissue disorders, the risk of aortic dissection is considerably lower.</t>
+          <t>Lack of a history of aortic aneurysm suggests a lower risk of dissection.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of aortic dissection or aneurysm</t>
+          <t>Bicuspid aortic valve</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history of aortic dissection suggests a genetic predisposition, which can increase the likelihood of the condition.</t>
+          <t>This congenital heart defect is associated with a higher risk of aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No family history of aortic disease</t>
+          <t>No bicuspid aortic valve</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>The absence of a family history of aortic dissection indicates a lower genetic risk for the condition.</t>
+          <t>Absence of this congenital defect reduces the risk of aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chronic use of corticosteroids</t>
+          <t>Family history of aortic dissection</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Long-term corticosteroid use can weaken the aortic wall, making dissection more likely.</t>
+          <t>A family history suggests a genetic predisposition to conditions affecting the aorta.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No chronic medication use that affects vascular integrity</t>
+          <t>No family history of aortic dissection</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not using medications that compromise vascular integrity suggests a lower likelihood of aortic dissection.</t>
+          <t>Without a family history, the genetic predisposition to aortic dissection is less likely.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of aortic dissection or other connective tissue disorders</t>
+          <t>Family history of aortic dissection</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of aortic dissection significantly increases the risk of developing the condition due to genetic predisposition.</t>
+          <t>A family history of aortic dissection significantly increases the risk due to potential genetic predispositions.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of cardiovascular disease</t>
+          <t>No family history of aortic dissection</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of cardiovascular disease history suggests a lower likelihood of aortic dissection, as it is often associated with underlying heart conditions.</t>
+          <t>The absence of a family history of aortic dissection reduces the likelihood of a genetic predisposition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>Connective tissue disorder in family</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hypertension is a major risk factor for aortic dissection, as it contributes to the weakening of the aortic wall.</t>
+          <t>Conditions like Marfan syndrome or Ehlers-Danlos syndrome in family members can predispose individuals to aortic dissection.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No family history of aortic dissection or related conditions</t>
+          <t>No connective tissue disorders in family</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of family history reduces the genetic risk factors associated with aortic dissection.</t>
+          <t>Without a family history of connective tissue disorders, the genetic risk for aortic dissection is lower.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of tobacco products</t>
+          <t>History of hypertension in family</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tobacco use is associated with vascular diseases and can increase the risk of aortic dissection due to its effects on blood vessels.</t>
+          <t>Hypertension is a major risk factor for aortic dissection, and a family history can indicate a genetic predisposition.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Healthy lifestyle with regular exercise and balanced diet</t>
+          <t>No history of hypertension in family</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A healthy lifestyle can mitigate risk factors for aortic dissection, suggesting a lower likelihood of the condition.</t>
+          <t>A lack of familial hypertension suggests a lower genetic risk for conditions leading to aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Participation in high-intensity sports or activities</t>
+          <t>Bicuspid aortic valve in family</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Engaging in high-intensity activities can increase the risk of aortic dissection, especially in individuals with predisposing factors.</t>
+          <t>A bicuspid aortic valve is a congenital condition that can run in families and is associated with an increased risk of aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No history of substance abuse</t>
+          <t>No bicuspid aortic valve in family</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Substance abuse can contribute to cardiovascular issues; absence of this factor suggests a lower risk for aortic dissection.</t>
+          <t>The absence of bicuspid aortic valve in family members reduces the risk of aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of Marfan syndrome or other connective tissue disorders</t>
+          <t>Family history of early cardiovascular disease</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Conditions like Marfan syndrome are directly linked to a higher incidence of aortic dissection due to structural abnormalities in connective tissue.</t>
+          <t>Early onset of cardiovascular diseases in family members can suggest a genetic risk for aortic dissection.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of connective tissue disorders</t>
+          <t>No family history of early cardiovascular disease</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Without connective tissue disorders, the risk of aortic dissection is significantly lower, as these conditions are key contributors.</t>
+          <t>Without a family history of early cardiovascular disease, the genetic predisposition to aortic dissection is less likely.</t>
         </is>
       </c>
     </row>
@@ -915,110 +915,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Severe, sudden-onset chest pain</t>
+          <t>Unequal blood pressures in arms</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>This is a classic presentation of aortic dissection, often described as a tearing or ripping sensation.</t>
+          <t>A significant difference in blood pressure between the arms is a classic sign of aortic dissection due to the involvement of the aorta and its branches.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal blood pressure</t>
+          <t>Normal blood pressure in both arms</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Normal blood pressure readings are less consistent with aortic dissection, where hypotension is more common.</t>
+          <t>Normal and equal blood pressures in both arms make aortic dissection less likely, as unequal pressures are a common finding.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Blood pressure differential between arms</t>
+          <t>New diastolic murmur</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A significant difference in blood pressure readings between the right and left arms can indicate aortic dissection due to compromised blood flow.</t>
+          <t>A new diastolic murmur, particularly an aortic regurgitation murmur, can occur if the dissection involves the aortic valve.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absence of neurological deficits</t>
+          <t>Absence of murmur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Neurological deficits may indicate complications of dissection, and their absence suggests a lower likelihood of dissection.</t>
+          <t>The absence of a new diastolic murmur reduces the likelihood of aortic dissection involving the aortic valve.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Diastolic murmur</t>
+          <t>Pulse deficit</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>A diastolic murmur may indicate aortic regurgitation secondary to dissection affecting the aortic valve.</t>
+          <t>A pulse deficit, or the absence of a pulse in one limb, can occur due to the dissection affecting blood flow to peripheral arteries.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal heart sounds</t>
+          <t>No pulse deficit</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal heart sounds without any murmurs or additional sounds decrease the likelihood of aortic dissection.</t>
+          <t>The presence of normal pulses in all extremities suggests that there is no significant obstruction or dissection affecting peripheral arteries.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Pulsus paradoxus</t>
+          <t>Hypotension or shock</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>This finding can occur in cases of cardiac tamponade, which may be associated with aortic dissection.</t>
+          <t>Hypotension or shock can occur if the dissection leads to significant blood loss or cardiac tamponade.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Stable vital signs</t>
+          <t>Stable hemodynamics</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stable vital signs without significant changes suggest that aortic dissection is less likely.</t>
+          <t>Stable blood pressure and heart rate without signs of shock or hypotension make aortic dissection less likely.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Neurological deficits</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hypotension can occur due to significant blood loss or compromised circulation from aortic dissection.</t>
+          <t>Neurological deficits can occur if the dissection affects blood flow to the brain or spinal cord.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No signs of shock</t>
+          <t>No neurological deficits</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of shock symptoms indicates that there is likely no significant hemodynamic compromise, which is often present in aortic dissection.</t>
+          <t>The absence of neurological deficits suggests that there is no compromise of blood flow to the central nervous system.</t>
         </is>
       </c>
     </row>
@@ -1066,110 +1066,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Chest CT angiography showing a intimal flap</t>
+          <t>CT angiography showing intimal flap</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>The presence of an intimal flap on imaging is highly specific for aortic dissection, indicating a tear in the aortic wall.</t>
+          <t>The presence of an intimal flap on CT angiography is highly specific for aortic dissection, as it directly visualizes the tear in the aortic wall.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal chest X-ray</t>
+          <t>Normal CT angiography</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal chest X-ray makes aortic dissection less likely, as it typically shows signs such as a widened mediastinum.</t>
+          <t>A normal CT angiography is strong evidence against aortic dissection as it would typically reveal any dissection flaps or double lumens.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Transesophageal echocardiogram revealing a false lumen</t>
+          <t>MRI showing double lumen</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A false lumen identified on transesophageal echocardiography is a strong indicator of aortic dissection.</t>
+          <t>MRI can reveal a double lumen, which is a classic sign of aortic dissection, indicating the presence of a true and false lumen.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative D-dimer test</t>
+          <t>Normal MRI of the aorta</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A negative D-dimer test significantly reduces the likelihood of aortic dissection, as elevated levels are often present.</t>
+          <t>An MRI that shows no abnormalities in the aorta is strong evidence against aortic dissection, as it would detect any structural changes.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MRI showing aortic wall hematoma</t>
+          <t>Transesophageal echocardiography (TEE) showing dissection flap</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>An aortic wall hematoma detected on MRI is consistent with aortic dissection and supports the diagnosis.</t>
+          <t>TEE is highly sensitive and specific for detecting a dissection flap, which is a direct indicator of aortic dissection.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Echocardiogram showing normal aortic structure</t>
+          <t>Negative TEE for dissection flap</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal echocardiogram without any signs of dissection or abnormalities suggests that aortic dissection is unlikely.</t>
+          <t>A TEE that does not show a dissection flap is strong evidence against aortic dissection, given its high sensitivity for this condition.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated D-dimer levels</t>
+          <t>Aortography showing false lumen</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>While not specific, elevated D-dimer levels can support the diagnosis of aortic dissection, especially in acute settings.</t>
+          <t>Aortography can demonstrate a false lumen, which is a definitive sign of aortic dissection.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CT scan showing no evidence of dissection</t>
+          <t>Normal aortography</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A CT scan that does not show any signs of dissection strongly argues against the diagnosis.</t>
+          <t>A normal aortography, showing no false lumen or other abnormalities, is strong evidence against aortic dissection.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Chest X-ray showing a widened mediastinum</t>
+          <t>Ultrasound showing aortic root dilation</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>A widened mediastinum on chest X-ray is a classic sign that can suggest aortic dissection, although it is not definitive.</t>
+          <t>Significant dilation of the aortic root on ultrasound can be indicative of aortic dissection, especially in the context of acute symptoms.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>MRI showing no abnormalities in the aorta</t>
+          <t>Normal ultrasound of the aorta</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>An MRI that reveals no abnormalities in the aorta suggests that aortic dissection is not present.</t>
+          <t>An ultrasound that shows no dilation or other abnormalities of the aorta is evidence against aortic dissection.</t>
         </is>
       </c>
     </row>
